--- a/Templates/Example/Оргструктура.xlsx
+++ b/Templates/Example/Оргструктура.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkDirectum\Tasks\RUI-38\rx-util-importdata-net-core\Templates\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150B6B1-322B-4D41-ADCE-7FF01722B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -17,22 +18,22 @@
     <sheet name="Сотрудники" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$W$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$B$1:$W$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$X$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$B$1:$X$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Попова Елена  (Popova_EI)</author>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -251,12 +252,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -327,14 +328,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Зорина Елена (Zorina_EV)</author>
     <author>Токмурзин Павел  (Tokmurzin_PV)</author>
     <author>Попова Елена  (Popova_EI)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0">
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0">
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="2" shapeId="0">
+    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -478,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>ИНН</t>
   </si>
@@ -799,28 +800,16 @@
     <t>05.09.1951</t>
   </si>
   <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t>08.02.2023</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Загружен частично</t>
-  </si>
-  <si>
-    <t>Не найден Руководитель "Кондратьев Роман Георгиевич". Наименование подразделения: "Отдел снабжения".</t>
-  </si>
-  <si>
-    <t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</t>
+    <t>ИД во внешней системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -886,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -909,11 +898,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,15 +934,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,37 +1290,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.08984375" customWidth="1"/>
+    <col min="21" max="21" width="26.453125" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1376,17 +1384,20 @@
       <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1423,17 +1434,13 @@
       <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1470,18 +1477,14 @@
       <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W3"/>
+  <autoFilter ref="A1:X3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1489,23 +1492,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="8" max="8" width="36.6328125" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1530,17 +1536,20 @@
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1553,17 +1562,11 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1576,17 +1579,11 @@
       <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1599,17 +1596,11 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1622,45 +1613,33 @@
       <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.4">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8"/>
+  <autoFilter ref="A1:L8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1668,50 +1647,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="34.44140625" customWidth="1"/>
-    <col min="14" max="14" width="32.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="24.109375" customWidth="1"/>
-    <col min="20" max="20" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" customWidth="1"/>
+    <col min="13" max="13" width="34.453125" customWidth="1"/>
+    <col min="14" max="14" width="32.08984375" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="24.08984375" customWidth="1"/>
+    <col min="21" max="21" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1744,7 +1725,7 @@
       <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1759,17 +1740,20 @@
       <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1797,17 +1781,11 @@
       <c r="T2" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1829,17 +1807,11 @@
       <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="4" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1858,17 +1830,11 @@
       <c r="P4" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1893,17 +1859,11 @@
       <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1952,17 +1912,12 @@
       <c r="S6" s="6">
         <v>4.0817810099910001E+19</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="T6" s="6"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" ht="14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1987,58 +1942,52 @@
       <c r="H7" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" ht="14" x14ac:dyDescent="0.4">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:W16"/>
+  <autoFilter ref="B1:X16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
